--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="January Week 4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="February Week 1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -627,4 +628,203 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date From:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Date To:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NO.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Working Days</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>emp100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Prince Kwesi Oduro</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>emp102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Prince Oduro</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>Total Hours Overall:</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="January Week 4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="February Week 1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="March Week 3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -827,4 +828,169 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date From:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Date To:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NO.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Check-In Date</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Check-In Time</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Check-Out Date</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Check-Out Time</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hours on Site</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>emp100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Prince Kwesi Oduro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10:36:48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13:58:11</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>51:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>emp102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Prince Oduro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14:02:41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>14:05:20</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0 hours: 2 minutes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -11,6 +11,7 @@
     <sheet name="January Week 4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="February Week 1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="March Week 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="February Week 4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -836,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,7 +853,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-20</t>
         </is>
       </c>
     </row>
@@ -864,7 +865,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
@@ -886,25 +887,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Check-In Date</t>
+          <t>Check-In Time</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Check-In Time</t>
+          <t>Check-Out Time</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Check-Out Date</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Check-Out Time</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>Hours on Site</t>
         </is>
@@ -926,25 +917,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-21 10:36:48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10:36:48</t>
+          <t>2025-03-23 13:58:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>13:58:11</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>51:21</t>
         </is>
@@ -966,27 +947,452 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-23 14:02:41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14:02:41</t>
+          <t>2025-03-23 14:05:20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>14:05:20</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>0 hours: 2 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>emp100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Prince Kwesi Oduro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-03-24 15:25:19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>emp101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Kwesi Aldrin</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-03-25 14:37:17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-03-25 14:40:46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0 hours: 3 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>emp100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Prince Kwesi Oduro</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-03-26 12:55:52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-03-26 17:22:10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4 hours: 26 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>KON00265</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Kwabena Siriboe</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-03-26 14:11:50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-03-26 17:24:40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3 hours: 12 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>emp100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Prince Kwesi Oduro</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-03-27 08:51:46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date From:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Date To:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NO.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Check-In Time</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Check-Out Time</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Hours on Site</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>emp100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Prince Kwesi Oduro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-03-21 10:36:48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-03-23 13:58:11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>51:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>emp102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Prince Oduro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-03-23 14:02:41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-03-23 14:05:20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0 hours: 2 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>emp100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Prince Kwesi Oduro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-03-24 15:25:19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>emp101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Kwesi Aldrin</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-03-25 14:37:17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-03-25 14:40:46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0 hours: 3 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>emp100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Prince Kwesi Oduro</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-03-26 12:55:52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-03-26 17:22:10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4 hours: 26 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>KON00265</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Kwabena Siriboe</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-03-26 14:11:50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-03-26 17:24:40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3 hours: 12 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>emp100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Prince Kwesi Oduro</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-03-27 08:51:46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
